--- a/HW1_DataGraphs.xlsx
+++ b/HW1_DataGraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techn\Github-Projects\CS2223-Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7E27CE-B299-4586-A43D-CE1AEE52EB1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334571D7-E4D7-4C33-95BD-1E4F47C0D859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FCB91BD-9079-441D-B638-9201682D71C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Linear</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Ternary</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Input Size</t>
   </si>
 </sst>
 </file>
@@ -895,13 +907,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Input</a:t>
+                  <a:t>Operations (Average over</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
+                  <a:t> 1000 trials</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1476,13 +1491,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Input</a:t>
+                  <a:t>Steps (Averaeg over 1000 trials )</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1547,6 +1557,590 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="741731791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Operations vs. Input Size in Sorting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>961195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98805918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9761525892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>975474588318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB56-4F07-9130-4181B873297F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1536365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18674241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB56-4F07-9130-4181B873297F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24786385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB56-4F07-9130-4181B873297F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="830905439"/>
+        <c:axId val="830899199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830905439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830899199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830899199"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0058951793859605E-2"/>
+              <c:y val="0.45930318585542262"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830905439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1753,6 +2347,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2773,6 +3407,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3393,6 +4543,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133049</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12095</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ADB166-BFCB-4080-B485-2D026621B6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3698,15 +4884,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F095B6-9DAA-4FE2-8359-F9C1213A2C0A}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,6 +5004,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -3895,8 +5087,90 @@
         <v>12</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>8845</v>
+      </c>
+      <c r="C32">
+        <v>541</v>
+      </c>
+      <c r="D32">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1000</v>
+      </c>
+      <c r="B33">
+        <v>961195</v>
+      </c>
+      <c r="C33">
+        <v>8707</v>
+      </c>
+      <c r="D33">
+        <v>10988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10000</v>
+      </c>
+      <c r="B34">
+        <v>98805918</v>
+      </c>
+      <c r="C34">
+        <v>120451</v>
+      </c>
+      <c r="D34">
+        <v>155605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100000</v>
+      </c>
+      <c r="B35">
+        <v>9761525892</v>
+      </c>
+      <c r="C35">
+        <v>1536365</v>
+      </c>
+      <c r="D35">
+        <v>2019394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1000000</v>
+      </c>
+      <c r="B36">
+        <v>975474588318</v>
+      </c>
+      <c r="C36">
+        <v>18674241</v>
+      </c>
+      <c r="D36">
+        <v>24786385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>